--- a/data/trans_dic/P7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con más de 1 persona</t>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +681,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -676,7 +701,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,32 +711,47 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>98,47%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>98,13%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>96,72%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>97,94%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,19; 100,0</t>
+          <t>84,1; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,11; 100,0</t>
+          <t>82,52; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,76; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>96,76; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,95; 100,0</t>
+          <t>87,56; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,48; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,53; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,46; 99,17</t>
+          <t>89,28; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,74; 100,0</t>
+          <t>82,31; 98,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100,0</t>
+          <t>90,55; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>96,97; 100,0</t>
+          <t>94,62; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,73; 99,63</t>
+          <t>93,76; 100,0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>93,83; 100,0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>89,99; 99,18</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>92,97; 100,0</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>92,75%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>98,8%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>97,2%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>95,06%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>92,83%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>94,45%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,87; 97,4</t>
+          <t>85,86; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,67; 97,66</t>
+          <t>86,53; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,31; 96,03</t>
+          <t>80,43; 98,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,04; 94,59</t>
+          <t>78,06; 96,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,87; 100</t>
+          <t>80,54; 98,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,48; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>93,11; 100,0</t>
+          <t>90,53; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,4; 100,0</t>
+          <t>88,52; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,43; 98,74</t>
+          <t>87,18; 100,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>92,1; 98,6</t>
+          <t>89,25; 100,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>89,46; 97,17</t>
+          <t>93,43; 100,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>88,36; 96,39</t>
+          <t>91,99; 99,15</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>88,16; 98,13</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>86,23; 96,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>87,6; 97,97</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>96,12%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>94,44%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>93,59%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>93,06%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,3; 97,99</t>
+          <t>82,0; 98,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,39; 97,81</t>
+          <t>80,27; 96,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,47; 96,3</t>
+          <t>77,96; 96,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,82; 96,03</t>
+          <t>75,93; 94,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,89; 100,0</t>
+          <t>76,43; 93,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>97,03; 100,0</t>
+          <t>95,72; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>95,44; 100,0</t>
+          <t>95,87; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,59; 100,0</t>
+          <t>92,87; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,13; 98,76</t>
+          <t>92,72; 100,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,54; 98,6</t>
+          <t>92,07; 100,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>92,09; 97,73</t>
+          <t>92,23; 98,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>91,95; 97,38</t>
+          <t>91,5; 98,16</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>89,99; 97,46</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>88,29; 96,61</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>87,73; 96,49</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>93,82%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>93,71%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>94,31%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>92,31%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,77; 96,89</t>
+          <t>88,03; 98,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,49; 95,89</t>
+          <t>85,45; 97,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,88; 96,13</t>
+          <t>85,72; 97,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,04; 96,19</t>
+          <t>86,22; 97,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,93; 97,63</t>
+          <t>82,06; 96,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,4; 97,67</t>
+          <t>88,24; 97,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,0; 96,82</t>
+          <t>88,26; 98,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,31; 97,68</t>
+          <t>87,88; 97,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,85; 96,36</t>
+          <t>88,85; 98,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,46; 96,17</t>
+          <t>86,24; 97,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,54; 95,74</t>
+          <t>90,01; 96,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,39; 96,17</t>
+          <t>89,32; 96,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>89,11; 96,7</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>90,2; 97,18</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>87,32; 95,67</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>89,33%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>89,6%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>86,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>87,32%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>85,47%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>78,48%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>88,97%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>88,99%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>89,0%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>88,49%</t>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>88,62%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>83,37%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,51; 95,32</t>
+          <t>72,33; 98,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,91; 95,85</t>
+          <t>67,44; 98,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71,93; 95,65</t>
+          <t>66,11; 98,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,3; 95,76</t>
+          <t>71,4; 98,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>77,77; 91,49</t>
+          <t>71,14; 95,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,6; 93,63</t>
+          <t>73,49; 93,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,61; 93,92</t>
+          <t>76,17; 95,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,15; 92,94</t>
+          <t>77,01; 94,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,69; 91,89</t>
+          <t>72,9; 93,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>80,32; 93,03</t>
+          <t>64,03; 88,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>80,87; 93,17</t>
+          <t>76,49; 94,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>81,13; 92,73</t>
+          <t>72,22; 94,65</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>71,37; 94,76</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>74,41; 94,02</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>71,46; 89,37</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,48%</t>
+          <t>75,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>83,46%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>76,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>78,09%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>86,49%</t>
+          <t>85,81%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>85,54%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>85,72%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>85,61%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>84,99%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,4; 97,34</t>
+          <t>88,44; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,53; 97,26</t>
+          <t>88,2; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>84,01; 97,36</t>
+          <t>88,98; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>82,16; 96,99</t>
+          <t>87,25; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>70,94; 88,18</t>
+          <t>84,81; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,21; 88,13</t>
+          <t>62,33; 86,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>72,83; 89,5</t>
+          <t>62,29; 86,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,75; 91,67</t>
+          <t>61,72; 86,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,2; 90,63</t>
+          <t>60,71; 86,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>79,37; 90,6</t>
+          <t>65,04; 89,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,91; 91,4</t>
+          <t>77,59; 92,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>81,37; 91,91</t>
+          <t>77,32; 92,78</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>77,55; 92,64</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>77,28; 93,01</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>76,37; 92,14</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>93,75%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>93,09%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>92,43%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>91,21%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90,78; 95,32</t>
+          <t>90,34; 96,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>90,32; 95,17</t>
+          <t>89,39; 96,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,11; 94,94</t>
+          <t>88,6; 96,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>89,43; 94,55</t>
+          <t>89,01; 95,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,97; 94,75</t>
+          <t>87,91; 94,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,18; 95,64</t>
+          <t>91,22; 95,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,64; 95,14</t>
+          <t>91,09; 95,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>91,44; 95,05</t>
+          <t>89,85; 94,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,27; 94,59</t>
+          <t>88,72; 94,31</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>92,04; 95,0</t>
+          <t>87,02; 93,4</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,63; 94,59</t>
+          <t>92,02; 95,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,41; 94,32</t>
+          <t>91,5; 95,5</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>90,56; 95,07</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>90,09; 94,27</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>88,83; 93,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83431</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103325</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>105717</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>127558</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>142448</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>117565</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>134002</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>115868</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>114312</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>142834</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>200996</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>237327</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>221585</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>241869</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>285283</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72421; 86113</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>88320; 107024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>127657; 145799</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>107207; 120084</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>100851; 120414</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>131744; 145497</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>192710; 203678</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>225994; 241026</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>211872; 225801</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>225053; 248042</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>270821; 291296</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>131463</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>162455</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>134648</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>139100</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>211178</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>133307</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>162059</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>122099</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>121376</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>157227</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>264769</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>324513</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>256747</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>260476</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>368405</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>117487; 136829</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>146011; 168742</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>115325; 141058</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>120420; 149404</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>183374; 223671</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>149466; 165106</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>112157; 126704</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>110115; 126312</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>144916; 162374</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>252376; 270135</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>307116; 331018</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>238107; 265032</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>241937; 272095</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>341695; 382136</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>129359</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>147664</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>117501</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>120165</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>155976</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>213562</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>261909</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>205115</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>196281</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>234818</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>342922</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>409573</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>322617</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>316445</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>390795</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>114569; 137051</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>130081; 156486</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>103093; 126999</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>104515; 129963</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>137764; 168359</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>206184; 215399</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>253161; 264071</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>194442; 209368</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>185864; 200465</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>220700; 239705</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>327527; 350364</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>389896; 418296</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>307406; 332926</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>298523; 326647</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>368444; 405232</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>154863</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>172194</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>148789</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>144451</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>182157</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>180151</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>205663</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>174853</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>163770</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>197904</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>335014</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>377856</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>323642</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>308220</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>380060</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>143919; 161217</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>157568; 179569</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>136667; 155267</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>133092; 150548</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>163296; 191804</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>168792; 187426</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>192744; 214024</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>163394; 182127</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>153225; 169343</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>183462; 206852</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>319303; 343549</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>359762; 389582</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>307778; 333986</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>294794; 317598</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>359522; 393915</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>126561</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>141255</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>118197</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>112090</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>135646</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>89078</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>102229</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>82844</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>79205</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>107556</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>215639</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>243484</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>201040</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>191295</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>243202</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>100464; 136746</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>106166; 155069</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>87320; 130195</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>87956; 121513</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>110016; 148325</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>76051; 97244</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>88510; 111106</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>72251; 89035</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>67563; 86874</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>87757; 121596</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>185387; 227973</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>197619; 258983</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>161216; 214054</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>160621; 202948</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>208459; 260682</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>88156</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>106745</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>85397</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>87807</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>131691</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>81110</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>104471</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>79594</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>84056</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>164638</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>169266</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>211215</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>164990</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>171863</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>296330</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>79805; 90237</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>96413; 109317</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>77710; 87335</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>78639; 90133</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>116894; 137831</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>66708; 93000</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>85708; 119458</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>64892; 91170</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>67151; 95561</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>137113; 188232</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>153058; 183106</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>190909; 229082</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>149267; 178316</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>155130; 186716</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>266278; 321233</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>365.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>670.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>667.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>661.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>649.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>713833</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>833637</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>710249</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>731170</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>959097</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>814773</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>970331</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>780373</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>758999</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1004976</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1528606</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1803968</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1490622</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1490170</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1964074</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>682331; 731276</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>794602; 856491</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>673502; 730817</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>700624; 752615</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>918808; 989624</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>791850; 831142</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>943128; 991182</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>755649; 798470</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>731980; 778136</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>964320; 1035028</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1493870; 1555079</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1760692; 1837774</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1450087; 1522219</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1452378; 1519778</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1912773; 2007133</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>